--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Breiten</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Ilse</t>
+  </si>
+  <si>
+    <t>jeppe@gmail.com</t>
+  </si>
+  <si>
+    <t>ilse@gmail.com</t>
+  </si>
+  <si>
+    <t>fabian@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +585,9 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
@@ -596,6 +608,9 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -615,6 +630,9 @@
       </c>
       <c r="B6" t="s">
         <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -633,6 +651,9 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>Breiten</t>
   </si>
@@ -108,6 +108,54 @@
   </si>
   <si>
     <t>fabian@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>jeroen@gmail.com</t>
+  </si>
+  <si>
+    <t>EIN 1</t>
+  </si>
+  <si>
+    <t>EIN 2</t>
+  </si>
+  <si>
+    <t>EIN 3</t>
+  </si>
+  <si>
+    <t>EIN 4</t>
+  </si>
+  <si>
+    <t>EIN 5</t>
+  </si>
+  <si>
+    <t>EIN 6</t>
+  </si>
+  <si>
+    <t>EIN 7</t>
+  </si>
+  <si>
+    <t>EIN 8</t>
+  </si>
+  <si>
+    <t>EIN 9</t>
+  </si>
+  <si>
+    <t>EIN 10</t>
+  </si>
+  <si>
+    <t>EIN 11</t>
+  </si>
+  <si>
+    <t>EIN 12</t>
+  </si>
+  <si>
+    <t>EIN 13</t>
+  </si>
+  <si>
+    <t>eindhoven@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +665,12 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
@@ -640,10 +694,362 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -654,6 +1060,9 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9:C20" r:id="rId8" display="eindhoven@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
   <si>
     <t>Breiten</t>
   </si>
@@ -156,6 +156,84 @@
   </si>
   <si>
     <t>eindhoven@gmail.com</t>
+  </si>
+  <si>
+    <t>EIN 14</t>
+  </si>
+  <si>
+    <t>EIN 15</t>
+  </si>
+  <si>
+    <t>EIN 16</t>
+  </si>
+  <si>
+    <t>EIN 17</t>
+  </si>
+  <si>
+    <t>EIN 18</t>
+  </si>
+  <si>
+    <t>EIN 19</t>
+  </si>
+  <si>
+    <t>EIN 20</t>
+  </si>
+  <si>
+    <t>EIN 21</t>
+  </si>
+  <si>
+    <t>EIN 22</t>
+  </si>
+  <si>
+    <t>EIN 23</t>
+  </si>
+  <si>
+    <t>EIN 24</t>
+  </si>
+  <si>
+    <t>EIN 25</t>
+  </si>
+  <si>
+    <t>EIN 26</t>
+  </si>
+  <si>
+    <t>EIN 27</t>
+  </si>
+  <si>
+    <t>EIN 28</t>
+  </si>
+  <si>
+    <t>EIN 29</t>
+  </si>
+  <si>
+    <t>EIN 30</t>
+  </si>
+  <si>
+    <t>EIN 31</t>
+  </si>
+  <si>
+    <t>EIN 32</t>
+  </si>
+  <si>
+    <t>EIN 33</t>
+  </si>
+  <si>
+    <t>EIN 34</t>
+  </si>
+  <si>
+    <t>EIN 35</t>
+  </si>
+  <si>
+    <t>EIN 36</t>
+  </si>
+  <si>
+    <t>EIN 37</t>
+  </si>
+  <si>
+    <t>EIN 38</t>
+  </si>
+  <si>
+    <t>EIN 39</t>
   </si>
 </sst>
 </file>
@@ -521,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,6 +1131,604 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -1063,6 +1739,15 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9:C20" r:id="rId8" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C21:C23" r:id="rId9" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C24:C26" r:id="rId10" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C27:C29" r:id="rId11" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C30:C32" r:id="rId12" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C33:C35" r:id="rId13" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C36:C38" r:id="rId14" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C39:C41" r:id="rId15" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C42:C44" r:id="rId16" display="eindhoven@gmail.com"/>
+    <hyperlink ref="C45:C46" r:id="rId17" display="eindhoven@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="75">
   <si>
     <t>Breiten</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>EIN 39</t>
+  </si>
+  <si>
+    <t>EHBO</t>
+  </si>
+  <si>
+    <t>Wil jureren</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Slaapplek</t>
+  </si>
+  <si>
+    <t>Allergiën/dieet</t>
   </si>
 </sst>
 </file>
@@ -599,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,9 +627,13 @@
     <col min="4" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -651,8 +670,23 @@
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -678,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -727,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -756,7 +790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -785,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -808,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -831,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -860,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -889,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -912,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -935,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -958,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -981,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1004,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
+  </si>
+  <si>
+    <t>Open Class</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -639,73 +640,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -713,43 +714,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -757,17 +758,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -775,20 +776,20 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -798,32 +799,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L4" s="2"/>
       <c r="O4" s="2"/>
@@ -831,7 +832,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V4" s="2"/>
     </row>
@@ -840,41 +841,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -882,46 +883,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" s="2"/>
       <c r="Q6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -929,20 +930,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -951,25 +952,25 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -977,20 +978,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -999,23 +1000,23 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1023,39 +1024,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1063,43 +1064,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1107,48 +1108,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V11" s="2"/>
     </row>
@@ -1157,43 +1158,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V12" s="2"/>
     </row>
@@ -1202,34 +1203,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1243,46 +1244,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">

--- a/NTDS_Eindhoven.xlsx
+++ b/NTDS_Eindhoven.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="18600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -236,23 +233,23 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,16 +264,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -284,19 +294,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,20 +667,21 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -664,16 +693,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -682,70 +711,67 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="3" t="s">
@@ -756,25 +782,25 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -782,7 +808,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
@@ -800,37 +826,37 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2"/>
       <c r="O4" s="2"/>
@@ -838,37 +864,37 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -881,36 +907,36 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>5</v>
@@ -931,25 +957,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -958,14 +984,14 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="2" t="s">
@@ -976,28 +1002,28 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1006,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1022,36 +1048,36 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
@@ -1062,40 +1088,40 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="2" t="s">
@@ -1106,36 +1132,36 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>5</v>
@@ -1155,37 +1181,37 @@
         <v>5</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
@@ -1200,37 +1226,37 @@
         <v>5</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>5</v>
@@ -1245,35 +1271,35 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1292,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1308,7 +1334,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
